--- a/biology/Botanique/Turbith_(botanique)/Turbith_(botanique).xlsx
+++ b/biology/Botanique/Turbith_(botanique)/Turbith_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Le Turbith peut désigner plusieurs plantes[1] :
-Operculina turpethum, espèce de plantes de la famille des Convolvulaceae originaire d'Afrique de l'Est et dont la racine est dotée de propriétés médicinales, notamment de propriétés purgatives ; elle était un des ingrédients par exemple du diaphoenix de la pharmacopée maritime occidentale au XVIIIe siècle [2] ;
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Le Turbith peut désigner plusieurs plantes :
+Operculina turpethum, espèce de plantes de la famille des Convolvulaceae originaire d'Afrique de l'Est et dont la racine est dotée de propriétés médicinales, notamment de propriétés purgatives ; elle était un des ingrédients par exemple du diaphoenix de la pharmacopée maritime occidentale au XVIIIe siècle  ;
 Ipomea purga nommé aussi « jalap » en tant que médicament cathartique, largement obsolète en médecine occidentale ;
 le « turbith noir » peut faire référence à d'autres plantes : Euphorbia palustris (Euphorbiaceae), Euphorbia pytuisa (d'après FEW) ;
-le « turbith blanc » : Globularia alypum[3].</t>
+le « turbith blanc » : Globularia alypum.</t>
         </is>
       </c>
     </row>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après le TLFi le terme turbith a été emprunté à l'arabe turbid « turbith », et celui-ci à une langue de l'Inde, cf. par exemple hindi tarbud (d'apr. FEW t. 19, p. 190a, du sanskrit tripuṭa « triple; turbith (Convolvulus Turpethum) » ou trivṛitā « turbith (Ipomoea Turpethum) » (M. Monier-Williams, A Sanskrit English Dict.)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après le TLFi le terme turbith a été emprunté à l'arabe turbid « turbith », et celui-ci à une langue de l'Inde, cf. par exemple hindi tarbud (d'apr. FEW t. 19, p. 190a, du sanskrit tripuṭa « triple; turbith (Convolvulus Turpethum) » ou trivṛitā « turbith (Ipomoea Turpethum) » (M. Monier-Williams, A Sanskrit English Dict.).
 Ce nom est également porté par un composé du mercure en raison de sa couleur jaune comme celle de la racine. On parle de « turbith minéral ».
 Un jaune est appelé Jaune de turbith.
 </t>
